--- a/project_time_tracking.xlsx
+++ b/project_time_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FECEF0-28E0-488E-8690-AA434C8A5C37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC65E03-3B19-42C5-BA67-2152160F1D06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{545C4596-B58E-495B-A36A-42D9A44E0E7B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Viivi</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>html and truthtable js</t>
+  </si>
+  <si>
+    <t>js implementing</t>
+  </si>
+  <si>
+    <t>writing report</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +520,16 @@
       <c r="A10" s="1">
         <v>43445</v>
       </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43446</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
